--- a/datawarehouse/sales.xlsx
+++ b/datawarehouse/sales.xlsx
@@ -536,7 +536,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -1936,7 +1936,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -2886,7 +2886,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3186,7 +3186,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -3636,7 +3636,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -4536,7 +4536,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -4586,7 +4586,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -4886,7 +4886,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -5136,7 +5136,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -5336,7 +5336,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -5386,7 +5386,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -5436,7 +5436,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -5486,7 +5486,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -5536,7 +5536,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -5586,7 +5586,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -5736,7 +5736,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -5786,7 +5786,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -5886,7 +5886,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -5936,7 +5936,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -5986,7 +5986,7 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -6186,7 +6186,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -6236,7 +6236,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -6286,7 +6286,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -6386,7 +6386,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -6486,7 +6486,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -6536,7 +6536,7 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -6586,7 +6586,7 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -6636,7 +6636,7 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -6686,7 +6686,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -6736,7 +6736,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -6786,7 +6786,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -6836,7 +6836,7 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
@@ -6886,7 +6886,7 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -6986,7 +6986,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -7086,7 +7086,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -7186,7 +7186,7 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -7436,7 +7436,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -7486,7 +7486,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -7536,7 +7536,7 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -7586,7 +7586,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -7636,7 +7636,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -7686,7 +7686,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -7736,7 +7736,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -7836,7 +7836,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -7886,7 +7886,7 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -7936,7 +7936,7 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -7986,7 +7986,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -8036,7 +8036,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -8086,7 +8086,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -8136,7 +8136,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -8286,7 +8286,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
@@ -8386,7 +8386,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -8486,7 +8486,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -8586,7 +8586,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -8686,7 +8686,7 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
@@ -8736,7 +8736,7 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -8786,7 +8786,7 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -8836,7 +8836,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -8886,7 +8886,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -8936,7 +8936,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -8986,7 +8986,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -9036,7 +9036,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -9136,7 +9136,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -9186,7 +9186,7 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -9236,7 +9236,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -9286,7 +9286,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -9336,7 +9336,7 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
@@ -9386,7 +9386,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -9586,7 +9586,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -9686,7 +9686,7 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -9786,7 +9786,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -9836,7 +9836,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -9886,7 +9886,7 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -9936,7 +9936,7 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -9986,7 +9986,7 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -10036,7 +10036,7 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
@@ -10086,7 +10086,7 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
@@ -10136,7 +10136,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
@@ -10186,7 +10186,7 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
@@ -10236,7 +10236,7 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
@@ -10286,7 +10286,7 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
@@ -10336,7 +10336,7 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
@@ -10386,7 +10386,7 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
@@ -10436,7 +10436,7 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
@@ -10486,7 +10486,7 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>2024-05-13 11:49:43</t>
+          <t>2024-05-13 16:35:35</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
